--- a/ExtrairTitulo/emails.xlsx
+++ b/ExtrairTitulo/emails.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,14 +424,700 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Teste Numero:1015106749</t>
+          <t>5014401-40.2021.4.03.6182</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Teste Numero:2059416978</t>
+          <t>5014147-72.2018.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5012234-16.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5011812-41.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5011324-86.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5021653-94.2021.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5021576-85.2021.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5011306-02.2021.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5021322-15.2021.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5010621-58.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5021558-64.2021.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0048052-66.2012.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5008846-88.2021.4.03.6102</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5008837-75.2021.4.03.6119</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5009087-62.2021.4.03.6102</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5008012-39.2021.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0044871-18.2016.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5007807-73.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0002741-27.2014.4.03.6103</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0001289-09.2016.4.03.6136</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0007661-64.2016.4.03.6106</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0003058-23.2017.4.03.6102</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0004316-05.2013.4.03.6136</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0008376-53.2014.4.03.6114</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0002967-91.2012.4.03.6106</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0001853-70.2005.4.03.6104</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>5002680-62.2021.4.03.6127</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0048778-06.2013.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>5000960-80.2022.4.03.6109</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0001843-31.2007.4.03.6112</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0054899-50.2013.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0041027-80.2004.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0024651-50.2015.4.03.6144</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0021749-78.2013.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>5000289-20.2023.4.03.6110</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0037152-58.2011.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0014644-94.2006.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0014380-90.2002.4.03.6126</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0020695-43.2014.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0010553-44.2010.4.03.6109</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0043372-96.2016.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0043174-98.2012.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0010055-62.2013.4.03.6134</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0030209-10.1993.4.03.6100</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0055153-57.2012.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5027066-54.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5026996-37.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>5005163-27.2019.4.03.6130</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5017585-09.2018.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>5023972-35.2021.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>5014773-86.2021.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>5015976-49.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>5014788-60.2018.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>5014745-84.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>5022350-81.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>5021713-67.2021.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>5010699-91.2018.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>5011215-72.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0018613-10.2012.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>0014380-90.2002.4.03.6126</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0041430-63.2015.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0011986-90.2013.4.03.6105</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0012864-65.2016.4.03.6119</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>0030346-94.2017.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0043372-96.2016.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>0029325-83.2017.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>0032136-89.2012.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>0030270-07.2016.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0028240-38.2012.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0069989-69.2011.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0012278-24.2003.4.03.6106</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>0012276-54.2003.4.03.6106</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0012347-96.2012.4.03.6120</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>0011586-13.2007.4.03.6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>0040850-82.2005.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>0009991-78.2009.4.03.6106</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0012864-65.2016.4.03.6119</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>0030346-94.2017.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>0009943-24.2015.4.03.6102</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>0029597-97.2005.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>0029354-36.2017.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>5027856-38.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>5027375-75.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>5026996-37.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>5026987-75.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>5025882-63.2022.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>0000579-93.2014.4.03.6124</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>5002167-51.2018.4.03.6143</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>5003874-46.2021.4.03.6144</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0041523-12.2004.4.03.6182</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>0004151-04.2011.4.03.6111</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>5002077-43.2018.4.03.6143</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>0000265-53.2015.4.03.6144</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>0002047-09.2015.4.03.6108</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>5001881-10.2021.4.03.6130</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0041491-38.2015.4.03.6144</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>5002210-82.2018.4.03.6144</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>0006063-66.2016.4.03.6109</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0007240-23.2015.4.03.6102</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>5002519-24.2021.4.03.6104</t>
         </is>
       </c>
     </row>
